--- a/output/data/CAE_DT_armonizado.xlsx
+++ b/output/data/CAE_DT_armonizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\proyecto_sindicalizacion\output\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245FFF69-86BC-4177-A89F-19BC5655C1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EDEFE3-455D-46CF-AE97-DD00F371BAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1335" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19200" yWindow="-1215" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>id_cae2</t>
   </si>
@@ -295,10 +295,40 @@
     <t>Actividades de organizaciones y órganos extraterritoriales</t>
   </si>
   <si>
-    <t>Estos podrían ir separados o juntos según el N que tengan en las otras variables que analicemos</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>CAENES_ENE</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>97, 98</t>
   </si>
 </sst>
 </file>
@@ -322,24 +352,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -407,6 +425,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -420,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,12 +501,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,14 +817,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="124.08984375" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -767,6 +838,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
@@ -781,8 +855,11 @@
       <c r="C2">
         <v>100642</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -795,8 +872,11 @@
       <c r="C3">
         <v>15103</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -809,8 +889,11 @@
       <c r="C4">
         <v>7170</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -823,484 +906,589 @@
       <c r="C5">
         <v>2449</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>4</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C6">
         <v>112</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>5</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7">
         <v>33</v>
       </c>
-      <c r="E7">
+      <c r="D7">
         <v>5</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C8">
         <v>2816</v>
       </c>
-      <c r="E8">
-        <v>6</v>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C9">
         <v>5522</v>
       </c>
-      <c r="E9">
+      <c r="D9">
         <v>5</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C10">
         <v>2739</v>
       </c>
-      <c r="E10">
-        <v>7</v>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11">
         <v>41008</v>
       </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
       <c r="E11">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12">
         <v>8793</v>
       </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
       <c r="E12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13">
         <v>43</v>
       </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
       <c r="E13">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14">
         <v>10009</v>
       </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
       <c r="E14">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C15">
         <v>14133</v>
       </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
       <c r="E15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C16">
         <v>1427</v>
       </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
       <c r="E16">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C17">
         <v>11678</v>
       </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
       <c r="E17">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C18">
         <v>1799</v>
       </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
       <c r="E18">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C19">
         <v>21699</v>
       </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
       <c r="E19">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C20">
         <v>65</v>
       </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
       <c r="E20">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C21">
         <v>4151</v>
       </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
       <c r="E21">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C22">
         <v>560</v>
       </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
       <c r="E22">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C23">
         <v>3287</v>
       </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
       <c r="E23">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C24">
         <v>4613</v>
       </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
       <c r="E24">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C25">
         <v>1956</v>
       </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
       <c r="E25">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C26">
         <v>24199</v>
       </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
       <c r="E26">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C27">
         <v>3759</v>
       </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
       <c r="E27">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C28">
         <v>3322</v>
       </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
       <c r="E28">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C29">
         <v>6012</v>
       </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
       <c r="E29">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C30">
         <v>2155</v>
       </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
       <c r="E30">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C31">
         <v>1373</v>
       </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
       <c r="E31">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C32">
         <v>13003</v>
       </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
       <c r="E32">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C33">
         <v>6468</v>
       </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
       <c r="E33">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C34">
         <v>42243</v>
       </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
       <c r="E34">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C35">
         <v>8498</v>
       </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
       <c r="E35">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C36">
         <v>6741</v>
       </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
       <c r="E36">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C37">
         <v>1898</v>
       </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
       <c r="E37">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C38">
         <v>7626</v>
       </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
       <c r="E38">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C39">
         <v>942</v>
       </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
       <c r="E39">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1313,8 +1501,11 @@
       <c r="C40">
         <v>43556</v>
       </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
       <c r="E40">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1327,8 +1518,11 @@
       <c r="C41">
         <v>49963</v>
       </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
       <c r="E41">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1341,8 +1535,11 @@
       <c r="C42">
         <v>235308</v>
       </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
       <c r="E42">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1355,11 +1552,11 @@
       <c r="C43">
         <v>88600</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>91</v>
+      <c r="D43">
+        <v>19</v>
       </c>
       <c r="E43">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1372,9 +1569,11 @@
       <c r="C44">
         <v>238435</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44">
+        <v>20</v>
+      </c>
       <c r="E44">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1387,9 +1586,11 @@
       <c r="C45">
         <v>621037</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45">
+        <v>21</v>
+      </c>
       <c r="E45">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1402,64 +1603,79 @@
       <c r="C46">
         <v>147203</v>
       </c>
+      <c r="D46">
+        <v>22</v>
+      </c>
       <c r="E46">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C47">
         <v>3143</v>
       </c>
+      <c r="D47">
+        <v>23</v>
+      </c>
       <c r="E47">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C48">
         <v>1500</v>
       </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
       <c r="E48">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C49">
         <v>39570</v>
       </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
       <c r="E49">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C50">
         <v>4911</v>
       </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
       <c r="E50">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1472,8 +1688,11 @@
       <c r="C51">
         <v>20719</v>
       </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
       <c r="E51">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1486,50 +1705,62 @@
       <c r="C52">
         <v>110810</v>
       </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
       <c r="E52">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C53">
         <v>9562</v>
       </c>
+      <c r="D53">
+        <v>27</v>
+      </c>
       <c r="E53">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C54">
         <v>12637</v>
       </c>
+      <c r="D54">
+        <v>27</v>
+      </c>
       <c r="E54">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C55">
         <v>5462</v>
       </c>
+      <c r="D55">
+        <v>27</v>
+      </c>
       <c r="E55">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1542,78 +1773,96 @@
       <c r="C56">
         <v>19107</v>
       </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
       <c r="E56">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C57">
         <v>51856</v>
       </c>
+      <c r="D57">
+        <v>29</v>
+      </c>
       <c r="E57">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C58">
         <v>18103</v>
       </c>
+      <c r="D58">
+        <v>29</v>
+      </c>
       <c r="E58">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C59">
         <v>119000</v>
       </c>
+      <c r="D59">
+        <v>30</v>
+      </c>
       <c r="E59">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C60">
         <v>357</v>
       </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
       <c r="E60">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C61">
         <v>41874</v>
       </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
       <c r="E61">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1626,190 +1875,232 @@
       <c r="C62">
         <v>143316</v>
       </c>
+      <c r="D62">
+        <v>31</v>
+      </c>
       <c r="E62">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C63">
         <v>16444</v>
       </c>
+      <c r="D63">
+        <v>32</v>
+      </c>
       <c r="E63">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C64">
         <v>112386</v>
       </c>
+      <c r="D64">
+        <v>32</v>
+      </c>
       <c r="E64">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C65">
         <v>50686</v>
       </c>
+      <c r="D65">
+        <v>32</v>
+      </c>
       <c r="E65">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C66">
         <v>8764</v>
       </c>
+      <c r="D66">
+        <v>32</v>
+      </c>
       <c r="E66">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C67">
         <v>41278</v>
       </c>
+      <c r="D67">
+        <v>32</v>
+      </c>
       <c r="E67">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C68">
         <v>44622</v>
       </c>
+      <c r="D68">
+        <v>32</v>
+      </c>
       <c r="E68">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C69">
         <v>4442</v>
       </c>
+      <c r="D69">
+        <v>32</v>
+      </c>
       <c r="E69">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C70">
         <v>77799</v>
       </c>
+      <c r="D70">
+        <v>33</v>
+      </c>
       <c r="E70">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C71">
         <v>14845</v>
       </c>
+      <c r="D71">
+        <v>33</v>
+      </c>
       <c r="E71">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C72">
         <v>12690</v>
       </c>
+      <c r="D72">
+        <v>33</v>
+      </c>
       <c r="E72">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C73">
         <v>18134</v>
       </c>
+      <c r="D73">
+        <v>33</v>
+      </c>
       <c r="E73">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C74">
         <v>29102</v>
       </c>
+      <c r="D74">
+        <v>33</v>
+      </c>
       <c r="E74">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C75">
         <v>96619</v>
       </c>
+      <c r="D75">
+        <v>33</v>
+      </c>
       <c r="E75">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -1822,8 +2113,11 @@
       <c r="C76">
         <v>2939</v>
       </c>
+      <c r="D76">
+        <v>34</v>
+      </c>
       <c r="E76">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -1836,8 +2130,11 @@
       <c r="C77">
         <v>57947</v>
       </c>
+      <c r="D77">
+        <v>35</v>
+      </c>
       <c r="E77">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -1850,8 +2147,11 @@
       <c r="C78">
         <v>78806</v>
       </c>
+      <c r="D78">
+        <v>36</v>
+      </c>
       <c r="E78">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -1864,8 +2164,11 @@
       <c r="C79">
         <v>5702</v>
       </c>
+      <c r="D79">
+        <v>37</v>
+      </c>
       <c r="E79">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -1878,64 +2181,79 @@
       <c r="C80">
         <v>1820</v>
       </c>
+      <c r="D80">
+        <v>38</v>
+      </c>
       <c r="E80">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C81">
         <v>24514</v>
       </c>
+      <c r="D81">
+        <v>39</v>
+      </c>
       <c r="E81">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C82">
         <v>1371</v>
       </c>
+      <c r="D82">
+        <v>39</v>
+      </c>
       <c r="E82">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C83">
         <v>657</v>
       </c>
+      <c r="D83">
+        <v>39</v>
+      </c>
       <c r="E83">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C84">
         <v>52226</v>
       </c>
+      <c r="D84">
+        <v>39</v>
+      </c>
       <c r="E84">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -1948,8 +2266,11 @@
       <c r="C85">
         <v>236367</v>
       </c>
+      <c r="D85">
+        <v>40</v>
+      </c>
       <c r="E85">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -1962,36 +2283,45 @@
       <c r="C86">
         <v>20932</v>
       </c>
+      <c r="D86">
+        <v>41</v>
+      </c>
       <c r="E86">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C87">
         <v>54075</v>
       </c>
+      <c r="D87">
+        <v>42</v>
+      </c>
       <c r="E87">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C88">
         <v>41</v>
       </c>
-      <c r="E88">
-        <v>74</v>
+      <c r="D88">
+        <v>42</v>
+      </c>
+      <c r="E88" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2004,14 +2334,14 @@
       <c r="C89">
         <v>863</v>
       </c>
+      <c r="D89">
+        <v>43</v>
+      </c>
       <c r="E89">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D43:D45"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>